--- a/docs/excel_cells.xlsx
+++ b/docs/excel_cells.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.nginn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/Jeux de données TEST/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF04C1EF-AC9B-4B64-9A7C-2B3246417A1E}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="2715" windowWidth="24690" windowHeight="14430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23025" yWindow="3600" windowWidth="23145" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -79,12 +79,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Texte simple</t>
-  </si>
-  <si>
-    <t>2025-11-30</t>
   </si>
   <si>
     <t>Lien vers site</t>
@@ -134,9 +131,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -153,6 +151,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -507,7 +509,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,8 +533,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
+      <c r="A4" s="2">
+        <f ca="1">TODAY()</f>
+        <v>45993</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -559,12 +562,12 @@
     </row>
     <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">

--- a/docs/excel_cells.xlsx
+++ b/docs/excel_cells.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/Jeux de données TEST/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF04C1EF-AC9B-4B64-9A7C-2B3246417A1E}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AEB7B0D-196E-403B-B7C2-8D187AB33227}"/>
   <bookViews>
-    <workbookView xWindow="23025" yWindow="3600" windowWidth="23145" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22650" yWindow="2160" windowWidth="23145" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -509,7 +509,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,9 +533,9 @@
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f ca="1">TODAY()</f>
-        <v>45993</v>
+      <c r="A4" s="2" t="str">
+        <f ca="1">TEXT(TODAY(),"jjjj jj mmmm aaaa")</f>
+        <v>mardi 02 décembre 2025</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">

--- a/docs/excel_cells.xlsx
+++ b/docs/excel_cells.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/Jeux de données TEST/fichiers_excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/jdd/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AEB7B0D-196E-403B-B7C2-8D187AB33227}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86A1038-1392-4478-A0C3-B9770B3C457B}"/>
   <bookViews>
-    <workbookView xWindow="22650" yWindow="2160" windowWidth="23145" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Texte simple</t>
   </si>
@@ -88,13 +88,64 @@
   </si>
   <si>
     <t>Cellule avec commentaire</t>
+  </si>
+  <si>
+    <t>&lt;script&gt;alert(1)&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="x" onerror="alert(1)"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div style="background:url(javascript:alert(1))"&gt;</t>
+  </si>
+  <si>
+    <t>style=display:block onmouseover=alert(1)</t>
+  </si>
+  <si>
+    <t>&lt;marquee&gt;défile&lt;/marquee&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;gras&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;!-- commentaire --&gt;</t>
+  </si>
+  <si>
+    <t>' OR '1'='1</t>
+  </si>
+  <si>
+    <t>' OR IF(1=1, SLEEP(5), 0) --</t>
+  </si>
+  <si>
+    <t>{"role":"admin"}</t>
+  </si>
+  <si>
+    <t>{{= it.username}}</t>
+  </si>
+  <si>
+    <t>; ls -la</t>
+  </si>
+  <si>
+    <t>AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+  </si>
+  <si>
+    <t>\n \r \t \" \'</t>
+  </si>
+  <si>
+    <t>%3Cscript%3E</t>
+  </si>
+  <si>
+    <t>if(true){ alert("XSS")}</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;Texte légitime&lt;/div&gt;&lt;script&gt;changer contenu&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +159,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -131,10 +187,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -506,73 +565,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>12345</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>45.67</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="str">
         <f ca="1">TEXT(TODAY(),"jjjj jj mmmm aaaa")</f>
-        <v>mardi 02 décembre 2025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>mercredi 10 décembre 2025</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <f>SUM(1,2,3)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="e">
         <f>A2/0</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.6">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="e" vm="1">
         <v>#VALUE!</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +703,7 @@
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/docs/excel_cells.xlsx
+++ b/docs/excel_cells.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/jdd/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D86A1038-1392-4478-A0C3-B9770B3C457B}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB6867A-0BDD-4935-8BFF-4BCFB402D2E4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31395" yWindow="-7650" windowWidth="25215" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -568,13 +568,13 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33" customWidth="1"/>
+    <col min="1" max="1" width="36.5546875" customWidth="1"/>
+    <col min="2" max="2" width="81.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -684,11 +684,19 @@
       </c>
     </row>
     <row r="15" spans="1:2">
+      <c r="A15" t="str">
+        <f>IF(A7=TRUE,"Actif","Inactif")</f>
+        <v>Actif</v>
+      </c>
       <c r="B15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2">
+      <c r="A16" t="str">
+        <f>IF(A8=TRUE,"Actif","Inactif")</f>
+        <v>Inactif</v>
+      </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>

--- a/docs/excel_cells.xlsx
+++ b/docs/excel_cells.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/jdd/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB6867A-0BDD-4935-8BFF-4BCFB402D2E4}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D323D2FB-F4EA-4C10-B752-9F55632EB9C6}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="-7650" windowWidth="25215" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31395" yWindow="-6420" windowWidth="25215" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Texte simple</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>&lt;div&gt;Texte légitime&lt;/div&gt;&lt;script&gt;changer contenu&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Actif</t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -674,6 +677,9 @@
       </c>
     </row>
     <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -701,9 +707,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="str">
+        <f>IF(A1=TRUE,"Votre phrase personnalisée si vrai","Votre phrase personnalisée si faux")</f>
+        <v>Votre phrase personnalisée si faux</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel_cells.xlsx
+++ b/docs/excel_cells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://charvetdigitalmedia-my.sharepoint.com/personal/m_nginn_charvet-digitalmedia_com/Documents/Documents/jdd/fichiers_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D323D2FB-F4EA-4C10-B752-9F55632EB9C6}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{6E646992-B890-4411-A457-EF370C0DCA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49582FEE-EBE6-4F94-9B19-0FBB41639AB0}"/>
   <bookViews>
     <workbookView xWindow="31395" yWindow="-6420" windowWidth="25215" windowHeight="10785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Texte simple</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Actif</t>
+  </si>
+  <si>
+    <t>783b3f4f-2bef-4f39-831d-f819f39bda8b</t>
   </si>
 </sst>
 </file>
@@ -568,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -580,7 +583,7 @@
     <col min="2" max="2" width="81.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>12345</v>
       </c>
@@ -596,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>45.67</v>
       </c>
@@ -604,7 +607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="str">
         <f ca="1">TEXT(TODAY(),"jjjj jj mmmm aaaa")</f>
         <v>mercredi 10 décembre 2025</v>
@@ -612,8 +615,11 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <f>SUM(1,2,3)</f>
         <v>6</v>
@@ -622,7 +628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="e">
         <f>A2/0</f>
         <v>#DIV/0!</v>
@@ -631,7 +637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="b">
         <v>1</v>
       </c>
@@ -639,7 +645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="b">
         <v>0</v>
       </c>
@@ -647,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6">
+    <row r="9" spans="1:3" ht="15.6">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,7 +661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -663,7 +669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
@@ -671,12 +677,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="B12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -684,12 +690,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="str">
         <f>IF(A7=TRUE,"Actif","Inactif")</f>
         <v>Actif</v>
@@ -698,7 +704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="str">
         <f>IF(A8=TRUE,"Actif","Inactif")</f>
         <v>Inactif</v>
